--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1727910.35170188</v>
+        <v>1734920.407051905</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5693884.838889369</v>
+        <v>5693884.838889368</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92232807701203</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,13 +786,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>44.13217237922859</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>170.0673826460725</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>170.0673826460725</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>134.4926131195252</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6258681632693</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>170.0673826460721</v>
       </c>
       <c r="V5" t="n">
-        <v>170.0673826460725</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>170.0673826460721</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>170.0673826460721</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.76103503747539</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,7 +990,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>29.63863023056519</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367363</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.25547179922821</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>236.2222732851217</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>236.2222732851217</v>
+        <v>221.1910020305255</v>
       </c>
       <c r="G8" t="n">
         <v>236.2222732851217</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>236.2222732851217</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>26.69202002145357</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>236.2222732851217</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>141.1214164741479</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,61 +1379,61 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,31 +1446,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.0817264605106</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1628,7 +1628,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,7 +1701,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,11 +2081,11 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,31 +2123,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>118.8289569915117</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>82.69355372315668</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>21.18375537072436</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,13 +2400,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>65.62171707681787</v>
       </c>
       <c r="F24" t="n">
-        <v>126.2780122029086</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="27">
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>35.40726547353844</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>37.83939432415834</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2716,58 +2716,58 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>245.8063044701964</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>52.63933702223294</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>245.8063044701963</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>245.8063044701963</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>198.5266002157934</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>197.0707802316328</v>
       </c>
       <c r="T29" t="n">
         <v>211.1465602095188</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>239.396363553224</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>60.50509792336614</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.1199230387714</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>100.2861548818839</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>17.86202978431045</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.20854479803062</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.7338817492253</v>
       </c>
       <c r="T30" t="n">
-        <v>188.2154393402091</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>213.9920927263623</v>
@@ -2934,7 +2934,7 @@
         <v>239.7456938063071</v>
       </c>
       <c r="X30" t="n">
-        <v>193.823695848865</v>
+        <v>119.1249702692414</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>167.8826908273248</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>21.19448517584399</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>150.2778831528271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>38.79929285034171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.8063044701964</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>5.359632767829929</v>
+        <v>137.9198285865372</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.1465602095188</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>239.396363553224</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>245.8063044701964</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>245.8063044701964</v>
       </c>
       <c r="Y32" t="n">
-        <v>245.8063044701964</v>
+        <v>84.99630530778418</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>154.5838942952548</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>112.6302175837119</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>77.44734349680256</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>125.8626406804444</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>188.2154393402091</v>
       </c>
       <c r="U33" t="n">
         <v>213.9920927263623</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>239.7456938063071</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>193.823695848865</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7334064226918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>33.03548599932252</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>156.0416900038462</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>189.0771760031688</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>118.3090657029312</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>198.5266002157934</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>137.9198285865372</v>
+        <v>13.75878542764871</v>
       </c>
       <c r="S35" t="n">
-        <v>197.0707802316328</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3351,19 +3351,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>145.6957911007884</v>
       </c>
       <c r="F36" t="n">
         <v>133.1199230387714</v>
       </c>
       <c r="G36" t="n">
-        <v>47.50148690577909</v>
+        <v>71.05354060911877</v>
       </c>
       <c r="H36" t="n">
         <v>100.2861548818839</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>77.44734349680256</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>213.9920927263623</v>
       </c>
       <c r="V36" t="n">
-        <v>220.8512977948128</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>239.7456938063071</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>193.823695848865</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>193.7334064226918</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4717586683187</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.60541733485007</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>189.0771760031688</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,73 +3500,73 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>197.0707802316328</v>
+      </c>
+      <c r="T38" t="n">
+        <v>16.83253073624438</v>
+      </c>
+      <c r="U38" t="n">
+        <v>239.396363553224</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3588,19 +3588,19 @@
         <v>135.4957762100262</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>145.6957911007884</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>125.3942278085981</v>
       </c>
       <c r="H39" t="n">
-        <v>100.2861548818839</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>77.44734349680256</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.7338817492253</v>
       </c>
       <c r="T39" t="n">
-        <v>188.2154393402091</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>213.9920927263623</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>26.15803919844321</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7334064226918</v>
+        <v>155.0164826814188</v>
       </c>
     </row>
     <row r="40">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.73307398061182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.344102022557</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>189.0771760031688</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>137.9198285865372</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>75.98348238134004</v>
+        <v>211.1465602095188</v>
       </c>
       <c r="U41" t="n">
         <v>239.396363553224</v>
@@ -3800,13 +3800,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.756750758358361</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>154.5838942952548</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>160.7592096337032</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>135.4957762100262</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>145.6957911007884</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>133.1199230387714</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.20854479803062</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.7338817492253</v>
       </c>
       <c r="T42" t="n">
         <v>188.2154393402091</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>213.9920927263623</v>
       </c>
       <c r="V42" t="n">
-        <v>17.45821865766603</v>
+        <v>220.8512977948128</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>64.32699586777915</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>54.59250271121214</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>134.4846732919567</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.0771760031687</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>234.288905720311</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4062,19 +4062,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4107,16 +4107,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>166.1199809871572</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="E2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F2" t="n">
         <v>104.756466833843</v>
@@ -4322,7 +4322,7 @@
         <v>60.17851493563234</v>
       </c>
       <c r="H2" t="n">
-        <v>15.60056303742164</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I2" t="n">
         <v>15.60056303742164</v>
@@ -4340,40 +4340,40 @@
         <v>47.22142444577459</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.9507376187037</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
         <v>4.284706443124001</v>
@@ -4410,16 +4410,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>45.45613755060546</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>89.14698820604177</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O3" t="n">
         <v>89.14698820604177</v>
@@ -4434,25 +4434,25 @@
         <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>87.37278572049297</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V3" t="n">
-        <v>87.37278572049297</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W3" t="n">
-        <v>87.37278572049297</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X3" t="n">
-        <v>87.37278572049297</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y3" t="n">
-        <v>87.37278572049297</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.6467390108255</v>
       </c>
       <c r="C4" t="n">
-        <v>135.3139342451479</v>
+        <v>109.0687871126148</v>
       </c>
       <c r="D4" t="n">
-        <v>135.3139342451479</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="E4" t="n">
-        <v>135.3139342451479</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="F4" t="n">
-        <v>135.3139342451479</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="G4" t="n">
-        <v>135.3139342451479</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>69.3105240343566</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>108.4985622265788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>152.1894128820151</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="R4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="S4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="T4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="U4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="V4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="W4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="X4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.6467390108255</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>498.39268022003</v>
+        <v>164.9138255961911</v>
       </c>
       <c r="C5" t="n">
-        <v>326.6074452239972</v>
+        <v>164.9138255961911</v>
       </c>
       <c r="D5" t="n">
-        <v>154.8222102279643</v>
+        <v>164.9138255961911</v>
       </c>
       <c r="E5" t="n">
-        <v>154.8222102279643</v>
+        <v>164.9138255961911</v>
       </c>
       <c r="F5" t="n">
-        <v>147.8767094787609</v>
+        <v>29.06270123303431</v>
       </c>
       <c r="G5" t="n">
-        <v>132.4193988574123</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="H5" t="n">
-        <v>132.4193988574123</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="I5" t="n">
-        <v>13.6053906116858</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="J5" t="n">
-        <v>13.6053906116858</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="K5" t="n">
-        <v>116.6203965226082</v>
+        <v>116.6203965226081</v>
       </c>
       <c r="L5" t="n">
-        <v>284.9871053422199</v>
+        <v>116.6203965226081</v>
       </c>
       <c r="M5" t="n">
-        <v>362.7078716220301</v>
+        <v>284.9871053422195</v>
       </c>
       <c r="N5" t="n">
-        <v>531.0745804416418</v>
+        <v>441.4145251495895</v>
       </c>
       <c r="O5" t="n">
-        <v>680.2695305842899</v>
+        <v>590.6094752922376</v>
       </c>
       <c r="P5" t="n">
-        <v>680.2695305842899</v>
+        <v>680.2695305842885</v>
       </c>
       <c r="Q5" t="n">
-        <v>670.1779152160628</v>
+        <v>680.2695305842885</v>
       </c>
       <c r="R5" t="n">
-        <v>670.1779152160628</v>
+        <v>680.2695305842885</v>
       </c>
       <c r="S5" t="n">
-        <v>670.1779152160628</v>
+        <v>680.2695305842885</v>
       </c>
       <c r="T5" t="n">
-        <v>670.1779152160628</v>
+        <v>680.2695305842885</v>
       </c>
       <c r="U5" t="n">
-        <v>670.1779152160628</v>
+        <v>508.484295588256</v>
       </c>
       <c r="V5" t="n">
-        <v>498.39268022003</v>
+        <v>508.484295588256</v>
       </c>
       <c r="W5" t="n">
-        <v>498.39268022003</v>
+        <v>508.484295588256</v>
       </c>
       <c r="X5" t="n">
-        <v>498.39268022003</v>
+        <v>336.6990605922235</v>
       </c>
       <c r="Y5" t="n">
-        <v>498.39268022003</v>
+        <v>164.9138255961911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="C6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="D6" t="n">
-        <v>531.3351209230386</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="E6" t="n">
-        <v>503.2936713902352</v>
+        <v>419.8625461317187</v>
       </c>
       <c r="F6" t="n">
-        <v>356.7591134171202</v>
+        <v>273.3279881586037</v>
       </c>
       <c r="G6" t="n">
-        <v>218.0282879997357</v>
+        <v>134.5971627412192</v>
       </c>
       <c r="H6" t="n">
         <v>104.659152407315</v>
       </c>
       <c r="I6" t="n">
-        <v>14.35952326447151</v>
+        <v>14.35952326447148</v>
       </c>
       <c r="J6" t="n">
-        <v>13.6053906116858</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="K6" t="n">
         <v>138.9629506695232</v>
       </c>
       <c r="L6" t="n">
-        <v>307.3296594891349</v>
+        <v>138.9629506695232</v>
       </c>
       <c r="M6" t="n">
-        <v>442.5082632513488</v>
+        <v>138.9629506695232</v>
       </c>
       <c r="N6" t="n">
-        <v>610.8749720709606</v>
+        <v>307.3296594891345</v>
       </c>
       <c r="O6" t="n">
-        <v>610.8749720709606</v>
+        <v>475.6963683087459</v>
       </c>
       <c r="P6" t="n">
-        <v>610.8749720709606</v>
+        <v>610.8749720709592</v>
       </c>
       <c r="Q6" t="n">
-        <v>680.2695305842899</v>
+        <v>680.2695305842885</v>
       </c>
       <c r="R6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="S6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="T6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="U6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="V6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="W6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="X6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.2695305842899</v>
+        <v>579.1000011371742</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="C7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="D7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="E7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="F7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="G7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="H7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="I7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="J7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="K7" t="n">
-        <v>13.6053906116858</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="L7" t="n">
-        <v>40.91951561939878</v>
+        <v>40.91951561939875</v>
       </c>
       <c r="M7" t="n">
-        <v>80.10755381162096</v>
+        <v>80.10755381162093</v>
       </c>
       <c r="N7" t="n">
-        <v>123.7984044670573</v>
+        <v>123.7984044670572</v>
       </c>
       <c r="O7" t="n">
-        <v>148.1376811019566</v>
+        <v>148.1376811019565</v>
       </c>
       <c r="P7" t="n">
-        <v>148.1376811019566</v>
+        <v>148.1376811019565</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.1376811019566</v>
+        <v>61.10531418105307</v>
       </c>
       <c r="R7" t="n">
-        <v>148.1376811019566</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="S7" t="n">
-        <v>148.1376811019566</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="T7" t="n">
-        <v>148.1376811019566</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="U7" t="n">
-        <v>148.1376811019566</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="V7" t="n">
-        <v>148.1376811019566</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="W7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="X7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.09982679944626</v>
+        <v>13.60539061168577</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>746.792841670868</v>
+        <v>480.9313932927565</v>
       </c>
       <c r="C8" t="n">
-        <v>508.1844848172097</v>
+        <v>480.9313932927565</v>
       </c>
       <c r="D8" t="n">
-        <v>508.1844848172097</v>
+        <v>480.9313932927565</v>
       </c>
       <c r="E8" t="n">
-        <v>508.1844848172097</v>
+        <v>480.9313932927565</v>
       </c>
       <c r="F8" t="n">
-        <v>269.5761279635514</v>
+        <v>257.5061387164681</v>
       </c>
       <c r="G8" t="n">
-        <v>30.96777110989309</v>
+        <v>18.89778186280974</v>
       </c>
       <c r="H8" t="n">
-        <v>30.96777110989309</v>
+        <v>18.89778186280974</v>
       </c>
       <c r="I8" t="n">
-        <v>30.96777110989309</v>
+        <v>18.89778186280974</v>
       </c>
       <c r="J8" t="n">
         <v>18.89778186280974</v>
@@ -4808,13 +4808,13 @@
         <v>121.9127877737321</v>
       </c>
       <c r="L8" t="n">
-        <v>283.2039382356444</v>
+        <v>301.9886393583907</v>
       </c>
       <c r="M8" t="n">
-        <v>500.1795654985486</v>
+        <v>518.9642666212949</v>
       </c>
       <c r="N8" t="n">
-        <v>706.0340877057879</v>
+        <v>724.8187888285343</v>
       </c>
       <c r="O8" t="n">
         <v>855.229037848436</v>
@@ -4823,31 +4823,31 @@
         <v>944.8890931404869</v>
       </c>
       <c r="Q8" t="n">
-        <v>934.7974777722599</v>
+        <v>944.8890931404869</v>
       </c>
       <c r="R8" t="n">
-        <v>783.4145303569571</v>
+        <v>944.8890931404869</v>
       </c>
       <c r="S8" t="n">
-        <v>783.4145303569571</v>
+        <v>944.8890931404869</v>
       </c>
       <c r="T8" t="n">
-        <v>783.4145303569571</v>
+        <v>719.5397501464148</v>
       </c>
       <c r="U8" t="n">
-        <v>783.4145303569571</v>
+        <v>719.5397501464148</v>
       </c>
       <c r="V8" t="n">
-        <v>783.4145303569571</v>
+        <v>480.9313932927565</v>
       </c>
       <c r="W8" t="n">
-        <v>783.4145303569571</v>
+        <v>480.9313932927565</v>
       </c>
       <c r="X8" t="n">
-        <v>783.4145303569571</v>
+        <v>480.9313932927565</v>
       </c>
       <c r="Y8" t="n">
-        <v>783.4145303569571</v>
+        <v>480.9313932927565</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.65191451559545</v>
+        <v>816.757927308066</v>
       </c>
       <c r="C9" t="n">
-        <v>19.65191451559545</v>
+        <v>816.757927308066</v>
       </c>
       <c r="D9" t="n">
-        <v>19.65191451559545</v>
+        <v>667.8235176468147</v>
       </c>
       <c r="E9" t="n">
-        <v>19.65191451559545</v>
+        <v>508.5860626413591</v>
       </c>
       <c r="F9" t="n">
-        <v>19.65191451559545</v>
+        <v>362.0515046682441</v>
       </c>
       <c r="G9" t="n">
-        <v>19.65191451559545</v>
+        <v>223.3206792508597</v>
       </c>
       <c r="H9" t="n">
-        <v>19.65191451559545</v>
+        <v>109.951543658439</v>
       </c>
       <c r="I9" t="n">
         <v>19.65191451559545</v>
@@ -4884,13 +4884,13 @@
         <v>18.89778186280974</v>
       </c>
       <c r="K9" t="n">
-        <v>144.2553419206471</v>
+        <v>18.89778186280974</v>
       </c>
       <c r="L9" t="n">
-        <v>144.2553419206471</v>
+        <v>248.8608877311589</v>
       </c>
       <c r="M9" t="n">
-        <v>294.5255144225951</v>
+        <v>482.7209382834294</v>
       </c>
       <c r="N9" t="n">
         <v>528.3855649748656</v>
@@ -4911,22 +4911,22 @@
         <v>843.7195636933726</v>
       </c>
       <c r="T9" t="n">
-        <v>843.7195636933726</v>
+        <v>816.757927308066</v>
       </c>
       <c r="U9" t="n">
-        <v>843.7195636933726</v>
+        <v>816.757927308066</v>
       </c>
       <c r="V9" t="n">
-        <v>608.5674554616298</v>
+        <v>816.757927308066</v>
       </c>
       <c r="W9" t="n">
-        <v>369.9590986079715</v>
+        <v>816.757927308066</v>
       </c>
       <c r="X9" t="n">
-        <v>227.4122132805494</v>
+        <v>816.757927308066</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.65191451559545</v>
+        <v>816.757927308066</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="C10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="D10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="E10" t="n">
-        <v>18.89778186280974</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="F10" t="n">
-        <v>18.89778186280974</v>
+        <v>41.3922180505702</v>
       </c>
       <c r="G10" t="n">
-        <v>18.89778186280974</v>
+        <v>41.3922180505702</v>
       </c>
       <c r="H10" t="n">
-        <v>18.89778186280974</v>
+        <v>41.3922180505702</v>
       </c>
       <c r="I10" t="n">
-        <v>18.89778186280974</v>
+        <v>41.3922180505702</v>
       </c>
       <c r="J10" t="n">
-        <v>18.89778186280974</v>
+        <v>41.3922180505702</v>
       </c>
       <c r="K10" t="n">
         <v>18.89778186280974</v>
@@ -4978,34 +4978,34 @@
         <v>153.4300723530805</v>
       </c>
       <c r="P10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="R10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="S10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="T10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="U10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="V10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="W10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="X10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.6811423176194</v>
+        <v>153.4300723530805</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5075,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>852.8634924192114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>678.4104631380844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>529.4760534768332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>370.2385984713777</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5154,16 +5154,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="13">
@@ -5261,19 +5261,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>703.7721529630483</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>554.837743301797</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>395.6002882963414</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
         <v>110.334904905842</v>
@@ -5413,28 +5413,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5601,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5692,22 +5692,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.8099852548154</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C21" t="n">
-        <v>102.8099852548154</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8099852548154</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="E21" t="n">
-        <v>102.8099852548154</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="F21" t="n">
-        <v>102.8099852548154</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>102.8099852548154</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>102.8099852548154</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>310.5702840197694</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.8099852548154</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="22">
@@ -5941,7 +5941,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>40.6788758079141</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>40.6788758079141</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>411.587349213889</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C24" t="n">
-        <v>237.1343199327619</v>
+        <v>381.0346734484355</v>
       </c>
       <c r="D24" t="n">
-        <v>237.1343199327619</v>
+        <v>232.1002637871842</v>
       </c>
       <c r="E24" t="n">
-        <v>237.1343199327619</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6075,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W24" t="n">
-        <v>619.4388494194218</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X24" t="n">
-        <v>411.587349213889</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y24" t="n">
-        <v>411.587349213889</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C27" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E27" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>752.4182005328623</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>752.4182005328623</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>752.4182005328623</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>769.9458641337966</v>
+        <v>267.9537007921575</v>
       </c>
       <c r="C29" t="n">
-        <v>769.9458641337966</v>
+        <v>267.9537007921575</v>
       </c>
       <c r="D29" t="n">
-        <v>769.9458641337966</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="E29" t="n">
-        <v>769.9458641337966</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="F29" t="n">
-        <v>716.7748166365916</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="G29" t="n">
-        <v>468.4856202020498</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="H29" t="n">
-        <v>220.196423767508</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="I29" t="n">
         <v>19.66450435761571</v>
@@ -6464,49 +6464,49 @@
         <v>19.66450435761571</v>
       </c>
       <c r="K29" t="n">
-        <v>122.6795102685381</v>
+        <v>129.634414930218</v>
       </c>
       <c r="L29" t="n">
-        <v>309.7102665148765</v>
+        <v>321.540062975943</v>
       </c>
       <c r="M29" t="n">
-        <v>538.515690238847</v>
+        <v>538.5156902388471</v>
       </c>
       <c r="N29" t="n">
-        <v>744.3702124460863</v>
+        <v>744.3702124460865</v>
       </c>
       <c r="O29" t="n">
-        <v>893.5651625887343</v>
+        <v>893.5651625887346</v>
       </c>
       <c r="P29" t="n">
-        <v>983.2252178807853</v>
+        <v>983.2252178807855</v>
       </c>
       <c r="Q29" t="n">
-        <v>983.2252178807853</v>
+        <v>983.2252178807855</v>
       </c>
       <c r="R29" t="n">
-        <v>983.2252178807853</v>
+        <v>983.2252178807855</v>
       </c>
       <c r="S29" t="n">
-        <v>983.2252178807853</v>
+        <v>784.1638237074191</v>
       </c>
       <c r="T29" t="n">
-        <v>769.9458641337966</v>
+        <v>570.8844699604304</v>
       </c>
       <c r="U29" t="n">
-        <v>769.9458641337966</v>
+        <v>329.0699613208102</v>
       </c>
       <c r="V29" t="n">
-        <v>769.9458641337966</v>
+        <v>267.9537007921575</v>
       </c>
       <c r="W29" t="n">
-        <v>769.9458641337966</v>
+        <v>267.9537007921575</v>
       </c>
       <c r="X29" t="n">
-        <v>769.9458641337966</v>
+        <v>267.9537007921575</v>
       </c>
       <c r="Y29" t="n">
-        <v>769.9458641337966</v>
+        <v>267.9537007921575</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>139.0061050305393</v>
+        <v>154.1290730836474</v>
       </c>
       <c r="C30" t="n">
-        <v>139.0061050305393</v>
+        <v>154.1290730836474</v>
       </c>
       <c r="D30" t="n">
-        <v>139.0061050305393</v>
+        <v>154.1290730836474</v>
       </c>
       <c r="E30" t="n">
-        <v>139.0061050305393</v>
+        <v>154.1290730836474</v>
       </c>
       <c r="F30" t="n">
-        <v>139.0061050305393</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="G30" t="n">
-        <v>139.0061050305393</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="H30" t="n">
-        <v>37.70695868520203</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="I30" t="n">
         <v>19.66450435761571</v>
@@ -6543,49 +6543,49 @@
         <v>19.66450435761571</v>
       </c>
       <c r="K30" t="n">
-        <v>19.66450435761571</v>
+        <v>145.0220644154531</v>
       </c>
       <c r="L30" t="n">
-        <v>249.6276102259648</v>
+        <v>374.9851702838023</v>
       </c>
       <c r="M30" t="n">
-        <v>492.9758516514592</v>
+        <v>618.3334117092967</v>
       </c>
       <c r="N30" t="n">
-        <v>736.3240930769535</v>
+        <v>731.1871817541053</v>
       </c>
       <c r="O30" t="n">
-        <v>979.6723345024479</v>
+        <v>731.1871817541053</v>
       </c>
       <c r="P30" t="n">
-        <v>983.2252178807853</v>
+        <v>913.8306593674562</v>
       </c>
       <c r="Q30" t="n">
-        <v>983.2252178807853</v>
+        <v>983.2252178807855</v>
       </c>
       <c r="R30" t="n">
-        <v>983.2252178807853</v>
+        <v>894.1256776807546</v>
       </c>
       <c r="S30" t="n">
-        <v>983.2252178807853</v>
+        <v>732.7783223785068</v>
       </c>
       <c r="T30" t="n">
-        <v>793.1086124866347</v>
+        <v>732.7783223785068</v>
       </c>
       <c r="U30" t="n">
-        <v>576.9549834701071</v>
+        <v>516.6246933619792</v>
       </c>
       <c r="V30" t="n">
-        <v>576.9549834701071</v>
+        <v>516.6246933619792</v>
       </c>
       <c r="W30" t="n">
-        <v>334.7876159889888</v>
+        <v>274.4573258808609</v>
       </c>
       <c r="X30" t="n">
-        <v>139.0061050305393</v>
+        <v>154.1290730836474</v>
       </c>
       <c r="Y30" t="n">
-        <v>139.0061050305393</v>
+        <v>154.1290730836474</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.0730752423066</v>
+        <v>210.651550825463</v>
       </c>
       <c r="C31" t="n">
-        <v>41.0730752423066</v>
+        <v>210.651550825463</v>
       </c>
       <c r="D31" t="n">
-        <v>41.0730752423066</v>
+        <v>210.651550825463</v>
       </c>
       <c r="E31" t="n">
-        <v>41.0730752423066</v>
+        <v>210.651550825463</v>
       </c>
       <c r="F31" t="n">
-        <v>41.0730752423066</v>
+        <v>210.651550825463</v>
       </c>
       <c r="G31" t="n">
-        <v>19.66450435761571</v>
+        <v>210.651550825463</v>
       </c>
       <c r="H31" t="n">
-        <v>19.66450435761571</v>
+        <v>58.85570925695077</v>
       </c>
       <c r="I31" t="n">
         <v>19.66450435761571</v>
@@ -6625,46 +6625,46 @@
         <v>19.66450435761571</v>
       </c>
       <c r="L31" t="n">
-        <v>58.80842582639507</v>
+        <v>58.80842582639508</v>
       </c>
       <c r="M31" t="n">
-        <v>109.8262604796836</v>
+        <v>109.8262604796837</v>
       </c>
       <c r="N31" t="n">
-        <v>165.3469075961863</v>
+        <v>165.3469075961864</v>
       </c>
       <c r="O31" t="n">
         <v>201.515980692152</v>
       </c>
       <c r="P31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
       <c r="Q31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
       <c r="R31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
       <c r="S31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
       <c r="T31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
       <c r="U31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
       <c r="V31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
       <c r="W31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
       <c r="X31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
       <c r="Y31" t="n">
-        <v>210.6515508254629</v>
+        <v>210.651550825463</v>
       </c>
     </row>
     <row r="32">
@@ -6707,43 +6707,43 @@
         <v>302.7553618531966</v>
       </c>
       <c r="M32" t="n">
-        <v>519.7309891161008</v>
+        <v>531.5607855771673</v>
       </c>
       <c r="N32" t="n">
-        <v>725.5855113233401</v>
+        <v>737.4153077844067</v>
       </c>
       <c r="O32" t="n">
-        <v>881.735366127668</v>
+        <v>886.6102579270547</v>
       </c>
       <c r="P32" t="n">
-        <v>983.2252178807854</v>
+        <v>981.2862136421185</v>
       </c>
       <c r="Q32" t="n">
-        <v>983.2252178807854</v>
+        <v>983.2252178807855</v>
       </c>
       <c r="R32" t="n">
-        <v>977.8114474082299</v>
+        <v>843.9122597125662</v>
       </c>
       <c r="S32" t="n">
-        <v>977.8114474082299</v>
+        <v>843.9122597125662</v>
       </c>
       <c r="T32" t="n">
-        <v>764.5320936612412</v>
+        <v>843.9122597125662</v>
       </c>
       <c r="U32" t="n">
-        <v>764.5320936612412</v>
+        <v>602.097751072946</v>
       </c>
       <c r="V32" t="n">
-        <v>764.5320936612412</v>
+        <v>602.097751072946</v>
       </c>
       <c r="W32" t="n">
-        <v>516.2428972266994</v>
+        <v>353.8085546384042</v>
       </c>
       <c r="X32" t="n">
-        <v>516.2428972266994</v>
+        <v>105.5193582038624</v>
       </c>
       <c r="Y32" t="n">
-        <v>267.9537007921575</v>
+        <v>19.66450435761571</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>133.4324009068196</v>
+        <v>97.89414425337588</v>
       </c>
       <c r="C33" t="n">
-        <v>133.4324009068196</v>
+        <v>97.89414425337588</v>
       </c>
       <c r="D33" t="n">
-        <v>19.66450435761571</v>
+        <v>97.89414425337588</v>
       </c>
       <c r="E33" t="n">
-        <v>19.66450435761571</v>
+        <v>97.89414425337588</v>
       </c>
       <c r="F33" t="n">
-        <v>19.66450435761571</v>
+        <v>97.89414425337588</v>
       </c>
       <c r="G33" t="n">
-        <v>19.66450435761571</v>
+        <v>97.89414425337588</v>
       </c>
       <c r="H33" t="n">
-        <v>19.66450435761571</v>
+        <v>97.89414425337588</v>
       </c>
       <c r="I33" t="n">
         <v>19.66450435761571</v>
@@ -6786,16 +6786,16 @@
         <v>374.9851702838023</v>
       </c>
       <c r="M33" t="n">
-        <v>618.3334117092967</v>
+        <v>557.2334988419403</v>
       </c>
       <c r="N33" t="n">
-        <v>861.6816531347911</v>
+        <v>557.2334988419403</v>
       </c>
       <c r="O33" t="n">
-        <v>913.8306593674562</v>
+        <v>800.5817402674347</v>
       </c>
       <c r="P33" t="n">
-        <v>913.8306593674562</v>
+        <v>983.2252178807855</v>
       </c>
       <c r="Q33" t="n">
         <v>983.2252178807855</v>
@@ -6804,25 +6804,25 @@
         <v>983.2252178807855</v>
       </c>
       <c r="S33" t="n">
-        <v>983.2252178807855</v>
+        <v>856.0912373954882</v>
       </c>
       <c r="T33" t="n">
-        <v>983.2252178807855</v>
+        <v>665.9746320013376</v>
       </c>
       <c r="U33" t="n">
-        <v>767.0715888642579</v>
+        <v>449.82100298481</v>
       </c>
       <c r="V33" t="n">
-        <v>767.0715888642579</v>
+        <v>449.82100298481</v>
       </c>
       <c r="W33" t="n">
-        <v>524.9042213831397</v>
+        <v>449.82100298481</v>
       </c>
       <c r="X33" t="n">
-        <v>329.1227104246902</v>
+        <v>254.0394920263606</v>
       </c>
       <c r="Y33" t="n">
-        <v>133.4324009068196</v>
+        <v>254.0394920263606</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.2252178807855</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="C34" t="n">
-        <v>983.2252178807855</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="D34" t="n">
-        <v>983.2252178807855</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="E34" t="n">
-        <v>983.2252178807855</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="F34" t="n">
-        <v>949.8560401036921</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="G34" t="n">
-        <v>792.2381714129383</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="H34" t="n">
-        <v>792.2381714129383</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="I34" t="n">
-        <v>792.2381714129383</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="J34" t="n">
-        <v>792.2381714129383</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="K34" t="n">
-        <v>792.2381714129383</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="L34" t="n">
-        <v>831.3820928817177</v>
+        <v>58.80842582639508</v>
       </c>
       <c r="M34" t="n">
-        <v>882.3999275350062</v>
+        <v>109.8262604796837</v>
       </c>
       <c r="N34" t="n">
-        <v>937.9205746515089</v>
+        <v>165.3469075961864</v>
       </c>
       <c r="O34" t="n">
-        <v>974.0896477474746</v>
+        <v>201.515980692152</v>
       </c>
       <c r="P34" t="n">
-        <v>983.2252178807855</v>
+        <v>210.651550825463</v>
       </c>
       <c r="Q34" t="n">
-        <v>983.2252178807855</v>
+        <v>210.651550825463</v>
       </c>
       <c r="R34" t="n">
-        <v>983.2252178807855</v>
+        <v>210.651550825463</v>
       </c>
       <c r="S34" t="n">
-        <v>983.2252178807855</v>
+        <v>210.651550825463</v>
       </c>
       <c r="T34" t="n">
-        <v>983.2252178807855</v>
+        <v>210.651550825463</v>
       </c>
       <c r="U34" t="n">
-        <v>983.2252178807855</v>
+        <v>210.651550825463</v>
       </c>
       <c r="V34" t="n">
-        <v>983.2252178807855</v>
+        <v>210.651550825463</v>
       </c>
       <c r="W34" t="n">
-        <v>983.2252178807855</v>
+        <v>210.651550825463</v>
       </c>
       <c r="X34" t="n">
-        <v>983.2252178807855</v>
+        <v>19.66450435761571</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.2252178807855</v>
+        <v>19.66450435761571</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.7852498808503</v>
+        <v>706.7106158083052</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>706.7106158083052</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>706.7106158083052</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>706.7106158083052</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>706.7106158083052</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>463.2618391642051</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>219.8130625201051</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>824.7441973424169</v>
+        <v>950.1593924524052</v>
       </c>
       <c r="S35" t="n">
-        <v>625.6828031690504</v>
+        <v>950.1593924524052</v>
       </c>
       <c r="T35" t="n">
-        <v>625.6828031690504</v>
+        <v>950.1593924524052</v>
       </c>
       <c r="U35" t="n">
-        <v>625.6828031690504</v>
+        <v>950.1593924524052</v>
       </c>
       <c r="V35" t="n">
-        <v>625.6828031690504</v>
+        <v>706.7106158083052</v>
       </c>
       <c r="W35" t="n">
-        <v>625.6828031690504</v>
+        <v>706.7106158083052</v>
       </c>
       <c r="X35" t="n">
-        <v>625.6828031690504</v>
+        <v>706.7106158083052</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2340265249504</v>
+        <v>706.7106158083052</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>303.0261580864091</v>
+        <v>552.2132169762381</v>
       </c>
       <c r="C36" t="n">
-        <v>303.0261580864091</v>
+        <v>552.2132169762381</v>
       </c>
       <c r="D36" t="n">
-        <v>303.0261580864091</v>
+        <v>552.2132169762381</v>
       </c>
       <c r="E36" t="n">
-        <v>303.0261580864091</v>
+        <v>405.0457512178659</v>
       </c>
       <c r="F36" t="n">
-        <v>168.5615893603774</v>
+        <v>270.5811824918342</v>
       </c>
       <c r="G36" t="n">
-        <v>120.58028945555</v>
+        <v>198.8099293513102</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>97.5107830059729</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,7 +7020,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
         <v>473.4149733950735</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>747.9035264941086</v>
       </c>
       <c r="V36" t="n">
-        <v>740.9750365259769</v>
+        <v>747.9035264941086</v>
       </c>
       <c r="W36" t="n">
-        <v>498.8076690448586</v>
+        <v>747.9035264941086</v>
       </c>
       <c r="X36" t="n">
-        <v>303.0261580864091</v>
+        <v>747.9035264941086</v>
       </c>
       <c r="Y36" t="n">
-        <v>303.0261580864091</v>
+        <v>552.2132169762381</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.1011013610397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>154.1011013610397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>154.1011013610397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>154.1011013610397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7114,31 +7114,31 @@
         <v>210.26818957806</v>
       </c>
       <c r="Q37" t="n">
-        <v>154.1011013610397</v>
+        <v>210.26818957806</v>
       </c>
       <c r="R37" t="n">
-        <v>154.1011013610397</v>
+        <v>210.26818957806</v>
       </c>
       <c r="S37" t="n">
-        <v>154.1011013610397</v>
+        <v>210.26818957806</v>
       </c>
       <c r="T37" t="n">
-        <v>154.1011013610397</v>
+        <v>210.26818957806</v>
       </c>
       <c r="U37" t="n">
-        <v>154.1011013610397</v>
+        <v>210.26818957806</v>
       </c>
       <c r="V37" t="n">
-        <v>154.1011013610397</v>
+        <v>210.26818957806</v>
       </c>
       <c r="W37" t="n">
-        <v>154.1011013610397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>154.1011013610397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.1011013610397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>764.9957613372698</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>747.993205038033</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>335.6743497654782</v>
+        <v>429.9738654530539</v>
       </c>
       <c r="C39" t="n">
-        <v>335.6743497654782</v>
+        <v>429.9738654530539</v>
       </c>
       <c r="D39" t="n">
-        <v>198.8099293513102</v>
+        <v>293.109445038886</v>
       </c>
       <c r="E39" t="n">
-        <v>198.8099293513102</v>
+        <v>145.9419792805139</v>
       </c>
       <c r="F39" t="n">
-        <v>198.8099293513102</v>
+        <v>145.9419792805139</v>
       </c>
       <c r="G39" t="n">
-        <v>198.8099293513102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>97.5107830059729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7260,10 +7260,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>802.7098002083884</v>
       </c>
       <c r="T39" t="n">
-        <v>773.9405501164856</v>
+        <v>802.7098002083884</v>
       </c>
       <c r="U39" t="n">
-        <v>557.786921099958</v>
+        <v>586.5561711918608</v>
       </c>
       <c r="V39" t="n">
-        <v>557.786921099958</v>
+        <v>586.5561711918608</v>
       </c>
       <c r="W39" t="n">
-        <v>531.3646592833487</v>
+        <v>586.5561711918608</v>
       </c>
       <c r="X39" t="n">
-        <v>531.3646592833487</v>
+        <v>586.5561711918608</v>
       </c>
       <c r="Y39" t="n">
-        <v>335.6743497654782</v>
+        <v>429.9738654530539</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="L40" t="n">
-        <v>58.42506457899209</v>
+        <v>812.2140305115684</v>
       </c>
       <c r="M40" t="n">
-        <v>109.4428992322807</v>
+        <v>863.2318651648569</v>
       </c>
       <c r="N40" t="n">
-        <v>164.9635463487834</v>
+        <v>918.7525122813596</v>
       </c>
       <c r="O40" t="n">
-        <v>201.1326194447491</v>
+        <v>954.9215853773253</v>
       </c>
       <c r="P40" t="n">
-        <v>210.26818957806</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>210.26818957806</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>210.26818957806</v>
+        <v>797.042911043407</v>
       </c>
       <c r="S40" t="n">
-        <v>210.26818957806</v>
+        <v>797.042911043407</v>
       </c>
       <c r="T40" t="n">
-        <v>210.26818957806</v>
+        <v>797.042911043407</v>
       </c>
       <c r="U40" t="n">
-        <v>210.26818957806</v>
+        <v>797.042911043407</v>
       </c>
       <c r="V40" t="n">
-        <v>210.26818957806</v>
+        <v>797.042911043407</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>797.042911043407</v>
       </c>
     </row>
     <row r="41">
@@ -7433,25 +7433,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>824.7441973424169</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>824.7441973424169</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>747.993205038033</v>
+        <v>750.7778017636475</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>508.9632931240274</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>265.5145164799273</v>
       </c>
       <c r="W41" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
         <v>19.28114311021272</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>600.1606380428282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>437.7775980087845</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>300.9131775946166</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>153.7457118362444</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
         <v>19.28114311021272</v>
@@ -7497,43 +7497,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>874.9576153106053</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>713.6102600083575</v>
       </c>
       <c r="T42" t="n">
-        <v>773.9405501164856</v>
+        <v>523.4936546142069</v>
       </c>
       <c r="U42" t="n">
-        <v>773.9405501164856</v>
+        <v>307.3400255976793</v>
       </c>
       <c r="V42" t="n">
-        <v>756.3059858158128</v>
+        <v>84.25790661301994</v>
       </c>
       <c r="W42" t="n">
-        <v>756.3059858158128</v>
+        <v>84.25790661301994</v>
       </c>
       <c r="X42" t="n">
-        <v>756.3059858158128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>756.3059858158128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>210.26818957806</v>
+        <v>773.070109042789</v>
       </c>
       <c r="C43" t="n">
-        <v>210.26818957806</v>
+        <v>773.070109042789</v>
       </c>
       <c r="D43" t="n">
-        <v>155.1242474455225</v>
+        <v>773.070109042789</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>773.070109042789</v>
       </c>
       <c r="L43" t="n">
-        <v>58.42506457899209</v>
+        <v>812.2140305115684</v>
       </c>
       <c r="M43" t="n">
-        <v>109.4428992322807</v>
+        <v>863.2318651648569</v>
       </c>
       <c r="N43" t="n">
-        <v>164.9635463487834</v>
+        <v>918.7525122813596</v>
       </c>
       <c r="O43" t="n">
-        <v>201.1326194447491</v>
+        <v>954.9215853773253</v>
       </c>
       <c r="P43" t="n">
-        <v>210.26818957806</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>210.26818957806</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>210.26818957806</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>210.26818957806</v>
+        <v>773.070109042789</v>
       </c>
       <c r="T43" t="n">
-        <v>210.26818957806</v>
+        <v>773.070109042789</v>
       </c>
       <c r="U43" t="n">
-        <v>210.26818957806</v>
+        <v>773.070109042789</v>
       </c>
       <c r="V43" t="n">
-        <v>210.26818957806</v>
+        <v>773.070109042789</v>
       </c>
       <c r="W43" t="n">
-        <v>210.26818957806</v>
+        <v>773.070109042789</v>
       </c>
       <c r="X43" t="n">
-        <v>210.26818957806</v>
+        <v>773.070109042789</v>
       </c>
       <c r="Y43" t="n">
-        <v>210.26818957806</v>
+        <v>773.070109042789</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U44" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V44" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W44" t="n">
-        <v>467.067986854209</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X44" t="n">
-        <v>467.067986854209</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.067986854209</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>521.6723209211027</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>521.6723209211027</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>521.6723209211027</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7728,19 +7728,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7755,22 +7755,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>521.6723209211027</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>521.6723209211027</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V45" t="n">
-        <v>521.6723209211027</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W45" t="n">
-        <v>521.6723209211027</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X45" t="n">
-        <v>521.6723209211027</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>521.6723209211027</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J46" t="n">
         <v>829.5248650203655</v>
@@ -7834,22 +7834,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7988,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
         <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>182.6865521591028</v>
@@ -8070,7 +8070,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
         <v>178.1065797935588</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>405.8337976160597</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>308.8520577523335</v>
+        <v>400.4136158733448</v>
       </c>
       <c r="N5" t="n">
-        <v>399.4804462426634</v>
+        <v>387.4205583515101</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>308.6217624259467</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>278.6780781262747</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>301.4090947294058</v>
+        <v>301.4090947294054</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>312.6636270905166</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>270.518451618586</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>398.6867689719189</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8465,7 +8465,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>361.8257356842137</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>293.9220869542889</v>
+        <v>378.35630720714</v>
       </c>
       <c r="N9" t="n">
-        <v>367.5639853684551</v>
+        <v>177.4675976302385</v>
       </c>
       <c r="O9" t="n">
         <v>378.8185177295662</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>387.9403383922146</v>
+        <v>387.9403383922147</v>
       </c>
       <c r="N30" t="n">
-        <v>377.1480165535296</v>
+        <v>245.3354191993016</v>
       </c>
       <c r="O30" t="n">
-        <v>388.4025489146408</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>137.5631785035599</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>387.9403383922147</v>
+        <v>326.2232546878143</v>
       </c>
       <c r="N33" t="n">
-        <v>377.1480165535297</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>195.2720083158233</v>
+        <v>388.4025489146408</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>229.6373335557741</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11391,7 +11391,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,31 +23334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.45145718935679</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23501,10 +23501,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23516,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.55953011607097</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,7 +23589,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,10 +23969,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,31 +24011,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24057,16 +24057,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>26.24025540187216</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.703079128258395</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,10 +24108,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24221,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>318.2910467450428</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,13 +24254,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24288,13 +24288,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>92.02336337858307</v>
       </c>
       <c r="F24" t="n">
-        <v>18.79120019047524</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,7 +24303,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,13 +24342,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24443,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="27">
@@ -24531,19 +24531,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>109.6619469198454</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>162.3253343706633</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,22 +24683,22 @@
         <v>353.323602416395</v>
       </c>
       <c r="D29" t="n">
-        <v>342.7337522660704</v>
+        <v>96.92744779587406</v>
       </c>
       <c r="E29" t="n">
         <v>369.9810807176493</v>
       </c>
       <c r="F29" t="n">
-        <v>342.287419364866</v>
+        <v>394.9267563870989</v>
       </c>
       <c r="G29" t="n">
-        <v>157.5471436903262</v>
+        <v>403.3534481605225</v>
       </c>
       <c r="H29" t="n">
-        <v>81.71920829095831</v>
+        <v>327.5255127611546</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>198.5266002157934</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24728,16 @@
         <v>137.9198285865372</v>
       </c>
       <c r="S29" t="n">
-        <v>197.0707802316328</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>239.396363553224</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>315.8029691155224</v>
+        <v>255.2978711921562</v>
       </c>
       <c r="W29" t="n">
         <v>337.2916793628005</v>
@@ -24768,16 +24768,16 @@
         <v>145.6957911007884</v>
       </c>
       <c r="F30" t="n">
-        <v>133.1199230387714</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>125.3942278085981</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>100.2861548818839</v>
       </c>
       <c r="I30" t="n">
-        <v>59.58531371249211</v>
+        <v>77.44734349680256</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>88.20854479803062</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.7338817492253</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>188.2154393402091</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>74.6987255796236</v>
       </c>
       <c r="Y30" t="n">
         <v>193.7334064226918</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>167.8826908273248</v>
       </c>
       <c r="C31" t="n">
         <v>155.2975317440153</v>
@@ -24850,13 +24850,13 @@
         <v>133.4717586683187</v>
       </c>
       <c r="G31" t="n">
-        <v>134.8472048280022</v>
+        <v>156.0416900038462</v>
       </c>
       <c r="H31" t="n">
-        <v>150.2778831528271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>143.5011855726458</v>
+        <v>104.7018927223041</v>
       </c>
       <c r="J31" t="n">
         <v>81.40989076206026</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>124.9782478386717</v>
+        <v>370.7845523088681</v>
       </c>
       <c r="C32" t="n">
         <v>353.323602416395</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>132.5601958187072</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>197.0707802316328</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.1465602095188</v>
       </c>
       <c r="U32" t="n">
-        <v>239.396363553224</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>315.8029691155224</v>
@@ -24980,10 +24980,10 @@
         <v>91.48537489260411</v>
       </c>
       <c r="X32" t="n">
-        <v>357.7818113238565</v>
+        <v>111.9755068536601</v>
       </c>
       <c r="Y32" t="n">
-        <v>128.4823448312447</v>
+        <v>289.2923439936569</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>154.5838942952548</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>160.7592096337032</v>
       </c>
       <c r="D33" t="n">
-        <v>22.86555862631437</v>
+        <v>135.4957762100262</v>
       </c>
       <c r="E33" t="n">
         <v>145.6957911007884</v>
@@ -25014,7 +25014,7 @@
         <v>100.2861548818839</v>
       </c>
       <c r="I33" t="n">
-        <v>77.44734349680256</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,10 +25044,10 @@
         <v>88.20854479803062</v>
       </c>
       <c r="S33" t="n">
-        <v>159.7338817492253</v>
+        <v>33.87124106878095</v>
       </c>
       <c r="T33" t="n">
-        <v>188.2154393402091</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>220.8512977948128</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>239.7456938063071</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>193.7334064226918</v>
       </c>
     </row>
     <row r="34">
@@ -25084,10 +25084,10 @@
         <v>134.4846732919567</v>
       </c>
       <c r="F34" t="n">
-        <v>100.4362726689962</v>
+        <v>133.4717586683187</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>156.0416900038462</v>
       </c>
       <c r="H34" t="n">
         <v>150.2778831528271</v>
@@ -25138,7 +25138,7 @@
         <v>274.5737089819785</v>
       </c>
       <c r="X34" t="n">
-        <v>213.7603660344246</v>
+        <v>24.68319003125583</v>
       </c>
       <c r="Y34" t="n">
         <v>206.6353639974823</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>129.770263431209</v>
+        <v>370.7845523088681</v>
       </c>
       <c r="C35" t="n">
-        <v>235.0145367134638</v>
+        <v>353.323602416395</v>
       </c>
       <c r="D35" t="n">
         <v>342.7337522660704</v>
@@ -25166,13 +25166,13 @@
         <v>394.9267563870989</v>
       </c>
       <c r="G35" t="n">
-        <v>403.3534481605225</v>
+        <v>162.3391592828635</v>
       </c>
       <c r="H35" t="n">
-        <v>327.5255127611546</v>
+        <v>86.51122388349557</v>
       </c>
       <c r="I35" t="n">
-        <v>198.5266002157934</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>124.1610431588884</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>197.0707802316328</v>
       </c>
       <c r="T35" t="n">
         <v>211.1465602095188</v>
@@ -25211,7 +25211,7 @@
         <v>239.396363553224</v>
       </c>
       <c r="V35" t="n">
-        <v>315.8029691155224</v>
+        <v>74.78868023786333</v>
       </c>
       <c r="W35" t="n">
         <v>337.2916793628005</v>
@@ -25220,7 +25220,7 @@
         <v>357.7818113238565</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.274360423782</v>
+        <v>374.2886493014411</v>
       </c>
     </row>
     <row r="36">
@@ -25239,19 +25239,19 @@
         <v>135.4957762100262</v>
       </c>
       <c r="E36" t="n">
-        <v>145.6957911007884</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>77.89274090281903</v>
+        <v>54.34068719947935</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>77.44734349680256</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25287,19 +25287,19 @@
         <v>188.2154393402091</v>
       </c>
       <c r="U36" t="n">
-        <v>213.9920927263623</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.8512977948128</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>239.7456938063071</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>193.823695848865</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7334064226918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25321,7 @@
         <v>134.4846732919567</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4717586683187</v>
       </c>
       <c r="G37" t="n">
         <v>156.0416900038462</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.60733656223179</v>
+        <v>74.21275389708187</v>
       </c>
       <c r="R37" t="n">
         <v>165.344102022557</v>
@@ -25372,7 +25372,7 @@
         <v>240.1883539692155</v>
       </c>
       <c r="W37" t="n">
-        <v>274.5737089819785</v>
+        <v>85.49653297880968</v>
       </c>
       <c r="X37" t="n">
         <v>213.7603660344246</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>129.770263431209</v>
+        <v>370.7845523088681</v>
       </c>
       <c r="C38" t="n">
         <v>353.323602416395</v>
@@ -25439,22 +25439,22 @@
         <v>137.9198285865372</v>
       </c>
       <c r="S38" t="n">
-        <v>197.0707802316328</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.1465602095188</v>
+        <v>194.3140294732745</v>
       </c>
       <c r="U38" t="n">
-        <v>27.11097790978198</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>315.8029691155224</v>
+        <v>74.78868023786333</v>
       </c>
       <c r="W38" t="n">
         <v>337.2916793628005</v>
       </c>
       <c r="X38" t="n">
-        <v>116.7675224461975</v>
+        <v>357.7818113238565</v>
       </c>
       <c r="Y38" t="n">
         <v>133.274360423782</v>
@@ -25476,19 +25476,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>145.6957911007884</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>133.1199230387714</v>
       </c>
       <c r="G39" t="n">
-        <v>125.3942278085981</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>100.2861548818839</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.44734349680256</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,10 +25518,10 @@
         <v>88.20854479803062</v>
       </c>
       <c r="S39" t="n">
-        <v>159.7338817492253</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>188.2154393402091</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>220.8512977948128</v>
       </c>
       <c r="W39" t="n">
-        <v>213.5876546078639</v>
+        <v>239.7456938063071</v>
       </c>
       <c r="X39" t="n">
         <v>193.823695848865</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>38.71692374127304</v>
       </c>
     </row>
     <row r="40">
@@ -25567,7 +25567,7 @@
         <v>150.2778831528271</v>
       </c>
       <c r="I40" t="n">
-        <v>143.5011855726458</v>
+        <v>119.7681115920339</v>
       </c>
       <c r="J40" t="n">
         <v>81.40989076206026</v>
@@ -25594,7 +25594,7 @@
         <v>74.21275389708187</v>
       </c>
       <c r="R40" t="n">
-        <v>165.344102022557</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.0673086823597</v>
@@ -25609,7 +25609,7 @@
         <v>240.1883539692155</v>
       </c>
       <c r="W40" t="n">
-        <v>85.49653297880968</v>
+        <v>274.5737089819785</v>
       </c>
       <c r="X40" t="n">
         <v>213.7603660344246</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>137.9198285865372</v>
       </c>
       <c r="S41" t="n">
         <v>197.0707802316328</v>
       </c>
       <c r="T41" t="n">
-        <v>135.1630778281788</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25688,13 @@
         <v>74.78868023786333</v>
       </c>
       <c r="W41" t="n">
-        <v>337.2916793628005</v>
+        <v>334.5349286044421</v>
       </c>
       <c r="X41" t="n">
-        <v>357.7818113238565</v>
+        <v>116.7675224461975</v>
       </c>
       <c r="Y41" t="n">
-        <v>133.274360423782</v>
+        <v>374.2886493014411</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>154.5838942952548</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>160.7592096337032</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>135.4957762100262</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>145.6957911007884</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.1199230387714</v>
       </c>
       <c r="G42" t="n">
         <v>125.3942278085981</v>
@@ -25752,25 +25752,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>88.20854479803062</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.7338817492253</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>213.9920927263623</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>203.3930791371467</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>239.7456938063071</v>
       </c>
       <c r="X42" t="n">
-        <v>193.823695848865</v>
+        <v>129.4966999810858</v>
       </c>
       <c r="Y42" t="n">
         <v>193.7334064226918</v>
@@ -25789,10 +25789,10 @@
         <v>155.2975317440153</v>
       </c>
       <c r="D43" t="n">
-        <v>82.07368095238769</v>
+        <v>136.6661836635998</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>134.4846732919567</v>
       </c>
       <c r="F43" t="n">
         <v>133.4717586683187</v>
@@ -25834,7 +25834,7 @@
         <v>165.344102022557</v>
       </c>
       <c r="S43" t="n">
-        <v>212.0673086823597</v>
+        <v>22.99013267919099</v>
       </c>
       <c r="T43" t="n">
         <v>215.996300073669</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>148.4449359431696</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25913,13 +25913,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25950,19 +25950,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,16 +25995,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>34.04474770766441</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26044,7 +26044,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26074,7 +26074,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>188.1178019595862</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365851.2042942906</v>
+        <v>365851.2042942905</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365851.2042942906</v>
+        <v>365851.2042942905</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365851.2042942906</v>
+        <v>365851.2042942905</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>365851.2042942905</v>
+        <v>365851.2042942906</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>397010.8850295076</v>
+        <v>397010.8850295075</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>397010.8850295076</v>
+        <v>397010.8850295075</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26317,7 @@
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
         <v>257549.0424235651</v>
@@ -26338,16 +26338,16 @@
         <v>257549.0424235651</v>
       </c>
       <c r="K2" t="n">
-        <v>284075.326333443</v>
+        <v>284075.3263334431</v>
       </c>
       <c r="L2" t="n">
         <v>284075.326333443</v>
       </c>
       <c r="M2" t="n">
-        <v>282316.9937771991</v>
+        <v>282316.993777199</v>
       </c>
       <c r="N2" t="n">
-        <v>282316.993777199</v>
+        <v>282316.9937771992</v>
       </c>
       <c r="O2" t="n">
         <v>282316.9937771991</v>
@@ -26366,10 +26366,10 @@
         <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
-        <v>40685.9747724635</v>
+        <v>40685.97477246339</v>
       </c>
       <c r="D3" t="n">
-        <v>20549.69367920787</v>
+        <v>20549.69367920799</v>
       </c>
       <c r="E3" t="n">
         <v>1430.79043158861</v>
@@ -26390,10 +26390,10 @@
         <v>11546.91810999088</v>
       </c>
       <c r="K3" t="n">
-        <v>43204.43614866723</v>
+        <v>43204.43614866714</v>
       </c>
       <c r="L3" t="n">
-        <v>16743.20742672762</v>
+        <v>16743.20742672772</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362764.4252552455</v>
+        <v>362136.0369031266</v>
       </c>
       <c r="C4" t="n">
-        <v>336587.7073125691</v>
+        <v>335799.7648632507</v>
       </c>
       <c r="D4" t="n">
-        <v>322836.8436016366</v>
+        <v>321965.0859601341</v>
       </c>
       <c r="E4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589616</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>62122.00952493546</v>
+        <v>61242.07060836931</v>
       </c>
       <c r="L4" t="n">
-        <v>62122.00952493547</v>
+        <v>61242.0706083693</v>
       </c>
       <c r="M4" t="n">
-        <v>61153.79551773604</v>
+        <v>60275.96661371669</v>
       </c>
       <c r="N4" t="n">
-        <v>61153.79551773603</v>
+        <v>60275.96661371669</v>
       </c>
       <c r="O4" t="n">
-        <v>61153.79551773603</v>
+        <v>60275.96661371669</v>
       </c>
       <c r="P4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>43967.6968648812</v>
+        <v>43967.69686488118</v>
       </c>
       <c r="D5" t="n">
         <v>47989.9142157354</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222442.4043046726</v>
+        <v>223070.7926567916</v>
       </c>
       <c r="C6" t="n">
-        <v>215065.9926949057</v>
+        <v>215853.9351442244</v>
       </c>
       <c r="D6" t="n">
-        <v>244930.9201482398</v>
+        <v>245802.677789742</v>
       </c>
       <c r="E6" t="n">
-        <v>198569.3289682993</v>
+        <v>199447.1578723187</v>
       </c>
       <c r="F6" t="n">
-        <v>200000.1193998879</v>
+        <v>200877.9483039073</v>
       </c>
       <c r="G6" t="n">
-        <v>200000.1193998879</v>
+        <v>200877.9483039073</v>
       </c>
       <c r="H6" t="n">
-        <v>200000.119399888</v>
+        <v>200877.9483039073</v>
       </c>
       <c r="I6" t="n">
-        <v>200000.1193998879</v>
+        <v>200877.9483039073</v>
       </c>
       <c r="J6" t="n">
-        <v>188453.2012898971</v>
+        <v>189331.0301939164</v>
       </c>
       <c r="K6" t="n">
-        <v>162799.2925412995</v>
+        <v>163679.2314578658</v>
       </c>
       <c r="L6" t="n">
-        <v>189260.521263239</v>
+        <v>190140.4601798051</v>
       </c>
       <c r="M6" t="n">
-        <v>205504.9646889485</v>
+        <v>206382.7935929677</v>
       </c>
       <c r="N6" t="n">
-        <v>205504.9646889484</v>
+        <v>206382.7935929679</v>
       </c>
       <c r="O6" t="n">
-        <v>205504.9646889485</v>
+        <v>206382.7935929678</v>
       </c>
       <c r="P6" t="n">
-        <v>200000.119399888</v>
+        <v>200877.9483039073</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26790,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>170.0673826460725</v>
+        <v>170.0673826460721</v>
       </c>
       <c r="D4" t="n">
         <v>236.2222732851217</v>
@@ -26814,7 +26814,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>245.8063044701963</v>
+        <v>245.8063044701964</v>
       </c>
       <c r="L4" t="n">
         <v>245.8063044701964</v>
@@ -27012,10 +27012,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>125.9352102668439</v>
+        <v>125.9352102668435</v>
       </c>
       <c r="D4" t="n">
-        <v>66.15489063904926</v>
+        <v>66.15489063904964</v>
       </c>
       <c r="E4" t="n">
         <v>4.792015592537325</v>
@@ -27036,10 +27036,10 @@
         <v>44.13217237922856</v>
       </c>
       <c r="K4" t="n">
-        <v>130.7272258593812</v>
+        <v>130.7272258593808</v>
       </c>
       <c r="L4" t="n">
-        <v>66.15489063904928</v>
+        <v>66.15489063904965</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>125.9352102668439</v>
+        <v>125.9352102668435</v>
       </c>
       <c r="L4" t="n">
-        <v>66.15489063904926</v>
+        <v>66.15489063904964</v>
       </c>
       <c r="M4" t="n">
         <v>4.792015592537325</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>379.9537176646994</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G2" t="n">
         <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.4081575445007</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,7 +27476,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>181.8092097017462</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>142.2954822415181</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>198.6529630861733</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>195.2055091249351</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>184.6156589746105</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>272.3834326221863</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85002140713664</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,19 +27670,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>81.27827026176436</v>
       </c>
       <c r="V5" t="n">
-        <v>157.6848758240624</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>199.6637180323969</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>216.1705560099815</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>129.8840454179256</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>82.59681400593128</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>175.6055225771058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>346.4783698642524</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>129.0506184858858</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>170.6537724565897</v>
+        <v>185.6850437111859</v>
       </c>
       <c r="G8" t="n">
         <v>179.0804642300133</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,22 +27895,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>91.52998518501317</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>173.472708673368</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>15.47270987579788</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>64.65156872932957</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>15.96843579630766</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>34.50357226344607</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -29536,13 +29536,13 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>7.025156223919004</v>
       </c>
       <c r="L29" t="n">
-        <v>7.025156223919025</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="M29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29779,19 +29779,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>7.025156223919025</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
+        <v>5.066566083851289</v>
+      </c>
+      <c r="Q32" t="n">
         <v>11.94928935461252</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>11.94928935461252</v>
@@ -34708,13 +34708,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>44.13217237922859</v>
@@ -34790,7 +34790,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P3" t="n">
         <v>44.13217237922859</v>
@@ -34939,19 +34939,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>170.0673826460725</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>78.50582452506077</v>
+        <v>170.0673826460721</v>
       </c>
       <c r="N5" t="n">
-        <v>170.0673826460725</v>
+        <v>158.0074947549192</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>170.0673826460725</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>136.5440442042564</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>170.0673826460725</v>
+        <v>170.0673826460721</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>170.0673826460721</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>136.5440442042558</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35176,7 +35176,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>162.9203540019316</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>219.1673002655598</v>
@@ -35185,7 +35185,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>131.727524262527</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>151.7880530322706</v>
+        <v>236.2222732851217</v>
       </c>
       <c r="N9" t="n">
-        <v>236.2222732851217</v>
+        <v>46.12588554690524</v>
       </c>
       <c r="O9" t="n">
         <v>236.2222732851217</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,7 +35498,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35969,13 +35969,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>111.0807177501032</v>
       </c>
       <c r="L29" t="n">
-        <v>188.9199558043822</v>
+        <v>193.8440889350757</v>
       </c>
       <c r="M29" t="n">
-        <v>231.1165896201723</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>245.8063044701963</v>
+        <v>245.8063044701964</v>
       </c>
       <c r="N30" t="n">
-        <v>245.8063044701963</v>
+        <v>113.9937071159683</v>
       </c>
       <c r="O30" t="n">
-        <v>245.8063044701963</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.588771089229652</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>36.53441726865219</v>
       </c>
       <c r="P31" t="n">
-        <v>9.227848619506005</v>
+        <v>9.227848619506007</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37075,19 +37075,19 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>231.1165896201723</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>157.7271260649777</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>102.5150017708256</v>
+        <v>95.63227850006439</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.958590140067715</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>184.089220765796</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>245.8063044701964</v>
       </c>
-      <c r="N33" t="n">
-        <v>245.8063044701964</v>
-      </c>
-      <c r="O33" t="n">
-        <v>52.67576387137889</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>36.53441726865219</v>
       </c>
       <c r="P34" t="n">
-        <v>9.227848619506005</v>
+        <v>9.227848619506007</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>36.53441726865219</v>
       </c>
       <c r="P37" t="n">
-        <v>9.227848619506005</v>
+        <v>9.227848619506007</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37716,7 +37716,7 @@
         <v>36.53441726865219</v>
       </c>
       <c r="P40" t="n">
-        <v>9.227848619506005</v>
+        <v>9.227848619506007</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>36.53441726865219</v>
       </c>
       <c r="P43" t="n">
-        <v>9.227848619506005</v>
+        <v>9.227848619506007</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38111,7 +38111,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
